--- a/conf/excel/C_CarttonAOI.xlsx
+++ b/conf/excel/C_CarttonAOI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\Final-newCA-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC063C9-6951-49E6-B104-8FDCC7C025B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50599EF1-EB06-4D56-86DB-303C643CD779}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2670" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_CartoonAOI.conf" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -148,65 +148,81 @@
     <t>火车站</t>
   </si>
   <si>
+    <t>catalog=090304</t>
+  </si>
+  <si>
+    <t>滑雪场</t>
+  </si>
+  <si>
+    <t>category_code=281100</t>
+  </si>
+  <si>
+    <t>catalog=090307</t>
+  </si>
+  <si>
+    <t>产业园区</t>
+  </si>
+  <si>
+    <t>catalog=090306</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>景区</t>
+  </si>
+  <si>
+    <t>catalog=090305</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>catalog=090309</t>
+  </si>
+  <si>
+    <t>文化场馆</t>
+  </si>
+  <si>
+    <t>catalog=090302</t>
+  </si>
+  <si>
+    <t>小区</t>
+  </si>
+  <si>
+    <t>category_code%=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_code%=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_code%=22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_code%=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_code%=23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>category_code=182600</t>
-  </si>
-  <si>
-    <t>catalog=090304</t>
-  </si>
-  <si>
-    <t>滑雪场</t>
-  </si>
-  <si>
-    <t>category_code=281100</t>
-  </si>
-  <si>
-    <t>catalog=090307</t>
-  </si>
-  <si>
-    <t>产业园区</t>
-  </si>
-  <si>
-    <t>code=20</t>
-  </si>
-  <si>
-    <t>catalog=090306</t>
-  </si>
-  <si>
-    <t>医院</t>
-  </si>
-  <si>
-    <t>code=22</t>
-  </si>
-  <si>
-    <t>景区</t>
-  </si>
-  <si>
-    <t>code=24</t>
-  </si>
-  <si>
-    <t>catalog=090305</t>
-  </si>
-  <si>
-    <t>学校</t>
-  </si>
-  <si>
-    <t>code=23</t>
-  </si>
-  <si>
-    <t>catalog=090309</t>
-  </si>
-  <si>
-    <t>文化场馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,13 +252,36 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -272,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -280,11 +319,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,32 +611,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="1" max="1" width="51.375" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -605,100 +650,111 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/conf/excel/C_CarttonAOI.xlsx
+++ b/conf/excel/C_CarttonAOI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50599EF1-EB06-4D56-86DB-303C643CD779}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092D1F0-7AC8-4BAB-A1FA-D5A105622062}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_CartoonAOI.conf" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -148,6 +148,9 @@
     <t>火车站</t>
   </si>
   <si>
+    <t>category_code=182600</t>
+  </si>
+  <si>
     <t>catalog=090304</t>
   </si>
   <si>
@@ -184,37 +187,52 @@
     <t>文化场馆</t>
   </si>
   <si>
+    <t>其他</t>
+  </si>
+  <si>
     <t>catalog=090302</t>
   </si>
   <si>
     <t>小区</t>
   </si>
   <si>
-    <t>category_code%=28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_code%=20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_code%=22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_code%=24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_code%=23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category_code=182600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
+    <t>#category_code%=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#category_code%=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#category_code%=22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#category_code%=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#category_code%=23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code=23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -326,6 +344,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,18 +646,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -673,88 +694,143 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
